--- a/SO - 1215 samples.xlsx
+++ b/SO - 1215 samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farshad\Desktop\Git repos\Structural_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC0E9A-3A52-4A9F-A956-B7DEDE415C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2822815-A4F0-4252-830C-9B0DDDF4DC55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:N1216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
